--- a/2-Patient Data/MN0/Neurofeedback/Report_1.xlsx
+++ b/2-Patient Data/MN0/Neurofeedback/Report_1.xlsx
@@ -457,35 +457,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7719298245614035</v>
+        <v>0.6363636363636365</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7346938775510203</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7547169811320755</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
@@ -493,30 +493,30 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7535612535612535</v>
+        <v>0.6488095238095238</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7579710144927536</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7533118510562119</v>
+        <v>0.6442687747035574</v>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.7616513465570068</v>
+        <v>0.6560846560846562</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7547169811320755</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7557708286889731</v>
+        <v>0.6451471234079931</v>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
